--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.93510347245051</v>
+        <v>90.04057186387732</v>
       </c>
       <c r="D2" t="n">
-        <v>1.192869044524094</v>
+        <v>1.12195183979906</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.99499238089913</v>
+        <v>88.87761177081066</v>
       </c>
       <c r="D3" t="n">
-        <v>1.199544666762175</v>
+        <v>1.174610746489178</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.99068469850383</v>
+        <v>88.03565774479915</v>
       </c>
       <c r="D4" t="n">
-        <v>1.196878528886985</v>
+        <v>1.180947693275745</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.80800505218649</v>
+        <v>87.0170285739287</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13083141792937</v>
+        <v>0.9907743847208277</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.05316259364487</v>
+        <v>85.86718030880166</v>
       </c>
       <c r="D6" t="n">
-        <v>1.198800561140841</v>
+        <v>1.138262622216667</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.20598690323028</v>
+        <v>84.82438092839668</v>
       </c>
       <c r="D7" t="n">
-        <v>1.120727312905703</v>
+        <v>1.282324400152764</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.07776301554675</v>
+        <v>84.11990432615006</v>
       </c>
       <c r="D8" t="n">
-        <v>1.179403852234854</v>
+        <v>1.231420853204417</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.92932786561083</v>
+        <v>83.0447142589845</v>
       </c>
       <c r="D9" t="n">
-        <v>1.120989389667314</v>
+        <v>1.160898949821165</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.9543998329649</v>
+        <v>81.93097410128703</v>
       </c>
       <c r="D10" t="n">
-        <v>1.053222624424366</v>
+        <v>1.237994970872218</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.89074597573885</v>
+        <v>80.96123463255675</v>
       </c>
       <c r="D11" t="n">
-        <v>1.095709890235954</v>
+        <v>1.231036992527325</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.68366069870011</v>
+        <v>80.19506358381787</v>
       </c>
       <c r="D12" t="n">
-        <v>1.076077117621075</v>
+        <v>1.193105788435909</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.03555155744644</v>
+        <v>79.07611844940307</v>
       </c>
       <c r="D13" t="n">
-        <v>1.144076944809989</v>
+        <v>1.219587773002126</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.11935647566806</v>
+        <v>78.06842482468542</v>
       </c>
       <c r="D14" t="n">
-        <v>1.254255513630153</v>
+        <v>1.143939863936513</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.13432318693535</v>
+        <v>76.9774190477018</v>
       </c>
       <c r="D15" t="n">
-        <v>1.022902016946593</v>
+        <v>1.100654154491413</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.05751601313781</v>
+        <v>76.15104985912738</v>
       </c>
       <c r="D16" t="n">
-        <v>1.178450074792398</v>
+        <v>1.165906814477564</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.82419687179927</v>
+        <v>74.82884943427308</v>
       </c>
       <c r="D17" t="n">
-        <v>1.21575026179368</v>
+        <v>1.100529275169828</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.91924227279482</v>
+        <v>74.15072232215815</v>
       </c>
       <c r="D18" t="n">
-        <v>1.285909929467182</v>
+        <v>1.277884294716927</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.0389208328465</v>
+        <v>72.96245118509623</v>
       </c>
       <c r="D19" t="n">
-        <v>1.060809711720111</v>
+        <v>1.049941990169961</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.08312219773745</v>
+        <v>72.10615234462</v>
       </c>
       <c r="D20" t="n">
-        <v>1.05759462896797</v>
+        <v>1.083758580323439</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.08395807930708</v>
+        <v>70.97675341833481</v>
       </c>
       <c r="D21" t="n">
-        <v>1.166585549302985</v>
+        <v>1.12308310061057</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.96406681859325</v>
+        <v>69.90230996175809</v>
       </c>
       <c r="D22" t="n">
-        <v>1.248160453979669</v>
+        <v>1.144194744992092</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.86471795228357</v>
+        <v>68.96950027263985</v>
       </c>
       <c r="D23" t="n">
-        <v>1.211414054074239</v>
+        <v>1.168445130110508</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.90226445807861</v>
+        <v>68.07848041522396</v>
       </c>
       <c r="D24" t="n">
-        <v>1.128221193948165</v>
+        <v>1.050839113743946</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96470002871801</v>
+        <v>66.96098082005742</v>
       </c>
       <c r="D25" t="n">
-        <v>1.157600322814087</v>
+        <v>1.076953329947733</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.01763838942387</v>
+        <v>65.84145245156776</v>
       </c>
       <c r="D26" t="n">
-        <v>1.033756494308006</v>
+        <v>1.160530266335517</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.12132394196355</v>
+        <v>65.04220446682473</v>
       </c>
       <c r="D27" t="n">
-        <v>1.142037766077839</v>
+        <v>1.103186621778062</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.0104829716937</v>
+        <v>63.9360005982014</v>
       </c>
       <c r="D28" t="n">
-        <v>1.233085369444794</v>
+        <v>1.153024793308434</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.24654446931094</v>
+        <v>63.03960373505526</v>
       </c>
       <c r="D29" t="n">
-        <v>1.097432403661005</v>
+        <v>1.113974901163352</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.94105378094684</v>
+        <v>62.19899139119485</v>
       </c>
       <c r="D30" t="n">
-        <v>1.121600402686026</v>
+        <v>1.038919381908849</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.06855214590521</v>
+        <v>60.90273382432147</v>
       </c>
       <c r="D31" t="n">
-        <v>1.179710062682711</v>
+        <v>1.105976467548939</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02275496331453</v>
+        <v>59.90491784545696</v>
       </c>
       <c r="D32" t="n">
-        <v>1.014803478696263</v>
+        <v>1.099304903295003</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.19643646245601</v>
+        <v>58.85365664951149</v>
       </c>
       <c r="D33" t="n">
-        <v>1.186137438762679</v>
+        <v>1.132645745013482</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.94723313777042</v>
+        <v>58.02726995888618</v>
       </c>
       <c r="D34" t="n">
-        <v>1.105862100945285</v>
+        <v>1.189082370608579</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.82323183738276</v>
+        <v>57.08629216893891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9902660116439405</v>
+        <v>1.113531491153978</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.05240511730019</v>
+        <v>55.95072233048632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9666018373234133</v>
+        <v>1.145235186184921</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.09469702765684</v>
+        <v>55.01124618460024</v>
       </c>
       <c r="D37" t="n">
-        <v>1.057269561951836</v>
+        <v>1.137892040557368</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98599770966384</v>
+        <v>54.11686605168457</v>
       </c>
       <c r="D38" t="n">
-        <v>1.101420664776825</v>
+        <v>1.198661695819847</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.12251187647824</v>
+        <v>52.91558016668794</v>
       </c>
       <c r="D39" t="n">
-        <v>1.132613520068478</v>
+        <v>1.192378995803868</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.27000037111983</v>
+        <v>52.07746992116999</v>
       </c>
       <c r="D40" t="n">
-        <v>1.24973702046382</v>
+        <v>1.009620907044976</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8757755030631</v>
+        <v>50.97305369328</v>
       </c>
       <c r="D41" t="n">
-        <v>1.225927604465238</v>
+        <v>1.196582965449593</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.10281094721705</v>
+        <v>49.96520159646697</v>
       </c>
       <c r="D42" t="n">
-        <v>1.094488061386738</v>
+        <v>1.168314398430691</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.0734214348843</v>
+        <v>49.03300505084135</v>
       </c>
       <c r="D43" t="n">
-        <v>1.165989207953624</v>
+        <v>1.050878713227319</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.9086539045723</v>
+        <v>47.92171626345034</v>
       </c>
       <c r="D44" t="n">
-        <v>1.155089520522948</v>
+        <v>1.178512569829868</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.0226353371901</v>
+        <v>46.93268484483317</v>
       </c>
       <c r="D45" t="n">
-        <v>1.054270053941142</v>
+        <v>1.229654279171756</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.71381823724992</v>
+        <v>45.99277163154286</v>
       </c>
       <c r="D46" t="n">
-        <v>1.145836404662669</v>
+        <v>1.049131802218935</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.02584118782414</v>
+        <v>45.02436484828361</v>
       </c>
       <c r="D47" t="n">
-        <v>1.216201069748315</v>
+        <v>1.039549299454577</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.21509195501896</v>
+        <v>43.90712165469203</v>
       </c>
       <c r="D48" t="n">
-        <v>1.081282370521843</v>
+        <v>1.087310085646892</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.01822477891326</v>
+        <v>43.06721084896088</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9639533534727867</v>
+        <v>1.052815575680438</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.19729830034408</v>
+        <v>41.89083286542635</v>
       </c>
       <c r="D50" t="n">
-        <v>1.096737407487639</v>
+        <v>1.05619178457958</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.9799032376615</v>
+        <v>40.70389850445908</v>
       </c>
       <c r="D51" t="n">
-        <v>1.07146795945664</v>
+        <v>1.040314029249426</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.16724442694516</v>
+        <v>40.04515831258816</v>
       </c>
       <c r="D52" t="n">
-        <v>1.002302229621175</v>
+        <v>1.339389238479719</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.1492159617866</v>
+        <v>39.06520814635166</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9564840930852566</v>
+        <v>1.01533293093646</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.87160138308154</v>
+        <v>38.08674686631758</v>
       </c>
       <c r="D54" t="n">
-        <v>1.083161218043726</v>
+        <v>1.031914819544862</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01508176961635</v>
+        <v>36.98362873705427</v>
       </c>
       <c r="D55" t="n">
-        <v>1.11619166325351</v>
+        <v>1.068280632639545</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.86489510809846</v>
+        <v>35.94609966413242</v>
       </c>
       <c r="D56" t="n">
-        <v>1.128717473660456</v>
+        <v>1.050102465625822</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.00452701337856</v>
+        <v>35.03424132343034</v>
       </c>
       <c r="D57" t="n">
-        <v>1.055160804868539</v>
+        <v>1.126618402808834</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.97486578565167</v>
+        <v>34.07791517071256</v>
       </c>
       <c r="D58" t="n">
-        <v>1.169373637517941</v>
+        <v>1.1370491116683</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.82881630480728</v>
+        <v>32.94794243410445</v>
       </c>
       <c r="D59" t="n">
-        <v>1.086629190783261</v>
+        <v>1.066925038741729</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.02076915857517</v>
+        <v>32.15786462256778</v>
       </c>
       <c r="D60" t="n">
-        <v>1.201680895808312</v>
+        <v>1.133325537085537</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.93970014989631</v>
+        <v>30.76048591466128</v>
       </c>
       <c r="D61" t="n">
-        <v>1.111398844074439</v>
+        <v>1.06727122467383</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.16503959751518</v>
+        <v>29.98960575681472</v>
       </c>
       <c r="D62" t="n">
-        <v>1.060030313737595</v>
+        <v>1.00669104948067</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.06864620253385</v>
+        <v>28.99730517198405</v>
       </c>
       <c r="D63" t="n">
-        <v>1.045578286669173</v>
+        <v>0.9545310093776079</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.11161568475418</v>
+        <v>28.02425032557897</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9398393829967085</v>
+        <v>1.07709220576969</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.05762123927174</v>
+        <v>27.12124101310037</v>
       </c>
       <c r="D65" t="n">
-        <v>1.046787345163064</v>
+        <v>1.137040422882542</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.99465257192177</v>
+        <v>25.90683683700948</v>
       </c>
       <c r="D66" t="n">
-        <v>1.01584120045792</v>
+        <v>0.9505840231750752</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.98379991475199</v>
+        <v>25.00170120258337</v>
       </c>
       <c r="D67" t="n">
-        <v>1.081852223024607</v>
+        <v>1.128479885272309</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.01524695862769</v>
+        <v>24.13018383566504</v>
       </c>
       <c r="D68" t="n">
-        <v>1.012473592662557</v>
+        <v>1.164651701971124</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.97300869054255</v>
+        <v>22.95618524948931</v>
       </c>
       <c r="D69" t="n">
-        <v>1.025858971991496</v>
+        <v>1.050599337915088</v>
       </c>
     </row>
   </sheetData>
